--- a/raw_data/20200818_saline/20200818_Sensor2_Test_48.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_48.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0293E9C-21E1-4BBB-B086-9A4A8D3FD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>42674.512856</v>
+        <v>42674.512856000001</v>
       </c>
       <c r="B2" s="1">
-        <v>11.854031</v>
+        <v>11.854031000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="D2" s="1">
-        <v>-290.104000</v>
+        <v>-290.10399999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>42684.867735</v>
       </c>
       <c r="G2" s="1">
-        <v>11.856908</v>
+        <v>11.856908000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1276.700000</v>
+        <v>1276.7</v>
       </c>
       <c r="I2" s="1">
-        <v>-251.781000</v>
+        <v>-251.78100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>42695.663656</v>
+        <v>42695.663655999997</v>
       </c>
       <c r="L2" s="1">
         <v>11.859907</v>
       </c>
       <c r="M2" s="1">
-        <v>1310.310000</v>
+        <v>1310.31</v>
       </c>
       <c r="N2" s="1">
-        <v>-195.991000</v>
+        <v>-195.99100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>42706.508186</v>
+        <v>42706.508185999999</v>
       </c>
       <c r="Q2" s="1">
         <v>11.862919</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.210000</v>
+        <v>1322.21</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.947000</v>
+        <v>-179.947</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42717.011963</v>
+        <v>42717.011962999997</v>
       </c>
       <c r="V2" s="1">
-        <v>11.865837</v>
+        <v>11.865837000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1335.770000</v>
+        <v>1335.77</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.405000</v>
+        <v>-168.405</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>42727.452253</v>
+        <v>42727.452253000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.868737</v>
+        <v>11.868736999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1353.480000</v>
+        <v>1353.48</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.976000</v>
+        <v>-167.976</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>42738.021999</v>
+        <v>42738.021998999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.871673</v>
+        <v>11.871672999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1366.880000</v>
+        <v>1366.88</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.313000</v>
+        <v>-178.31299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>42748.476674</v>
+        <v>42748.476673999998</v>
       </c>
       <c r="AK2" s="1">
         <v>11.874577</v>
       </c>
       <c r="AL2" s="1">
-        <v>1387.990000</v>
+        <v>1387.99</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.688000</v>
+        <v>-208.68799999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>42759.350469</v>
+        <v>42759.350468999997</v>
       </c>
       <c r="AP2" s="1">
         <v>11.877597</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1409.890000</v>
+        <v>1409.89</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.737000</v>
+        <v>-252.73699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>42770.365126</v>
+        <v>42770.365125999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.880657</v>
+        <v>11.880656999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1434.650000</v>
+        <v>1434.65</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.891000</v>
+        <v>-312.89100000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>42781.254327</v>
+        <v>42781.254327000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.883682</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.000000</v>
+        <v>1454</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.079000</v>
+        <v>-365.07900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>42791.834954</v>
+        <v>42791.834953999998</v>
       </c>
       <c r="BE2" s="1">
         <v>11.886621</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.270000</v>
+        <v>1539.27</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.835000</v>
+        <v>-613.83500000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>42802.478108</v>
+        <v>42802.478108000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.889577</v>
+        <v>11.889576999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1693.310000</v>
+        <v>1693.31</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>42813.574631</v>
+        <v>42813.574631000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.892660</v>
+        <v>11.892659999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1987.270000</v>
+        <v>1987.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1834.060000</v>
+        <v>-1834.06</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>42825.483061</v>
+        <v>42825.483060999999</v>
       </c>
       <c r="BT2" s="1">
         <v>11.895968</v>
       </c>
       <c r="BU2" s="1">
-        <v>2372.470000</v>
+        <v>2372.4699999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2726.520000</v>
+        <v>-2726.52</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>42835.899049</v>
@@ -706,255 +1122,255 @@
         <v>11.898861</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2858.060000</v>
+        <v>2858.06</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3706.290000</v>
+        <v>-3706.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>42846.940976</v>
+        <v>42846.940975999998</v>
       </c>
       <c r="CD2" s="1">
         <v>11.901928</v>
       </c>
       <c r="CE2" s="1">
-        <v>4273.590000</v>
+        <v>4273.59</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6059.960000</v>
+        <v>-6059.96</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>42674.850532</v>
+        <v>42674.850531999997</v>
       </c>
       <c r="B3" s="1">
         <v>11.854125</v>
       </c>
       <c r="C3" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-290.328000</v>
+        <v>-290.32799999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>42685.209514</v>
+        <v>42685.209514000002</v>
       </c>
       <c r="G3" s="1">
-        <v>11.857003</v>
+        <v>11.857003000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1276.480000</v>
+        <v>1276.48</v>
       </c>
       <c r="I3" s="1">
-        <v>-251.234000</v>
+        <v>-251.23400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>42696.389800</v>
+        <v>42696.389799999997</v>
       </c>
       <c r="L3" s="1">
         <v>11.860108</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="N3" s="1">
-        <v>-195.798000</v>
+        <v>-195.798</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>42706.843220</v>
+        <v>42706.843220000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.863012</v>
+        <v>11.863011999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.160000</v>
+        <v>1322.16</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.978000</v>
+        <v>-179.97800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>42717.358178</v>
+        <v>42717.358178000002</v>
       </c>
       <c r="V3" s="1">
         <v>11.865933</v>
       </c>
       <c r="W3" s="1">
-        <v>1335.340000</v>
+        <v>1335.34</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.304000</v>
+        <v>-168.304</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>42727.836653</v>
+        <v>42727.836652999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.868844</v>
+        <v>11.868843999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.610000</v>
+        <v>1353.61</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.932000</v>
+        <v>-167.93199999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>42738.700030</v>
+        <v>42738.70003</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.871861</v>
+        <v>11.871861000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1366.940000</v>
+        <v>1366.94</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.300000</v>
+        <v>-178.3</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42749.183969</v>
+        <v>42749.183968999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.874773</v>
+        <v>11.874772999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.010000</v>
+        <v>1388.01</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.628000</v>
+        <v>-208.62799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>42759.795381</v>
+        <v>42759.795381000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.877721</v>
+        <v>11.877720999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.712000</v>
+        <v>-252.71199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>42770.795156</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.880776</v>
+        <v>11.880775999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1434.630000</v>
+        <v>1434.63</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.875000</v>
+        <v>-312.875</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>42781.616906</v>
+        <v>42781.616906000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.883782</v>
       </c>
       <c r="BA3" s="1">
-        <v>1453.970000</v>
+        <v>1453.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.085000</v>
+        <v>-365.08499999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>42792.220841</v>
+        <v>42792.220841000002</v>
       </c>
       <c r="BE3" s="1">
         <v>11.886728</v>
       </c>
       <c r="BF3" s="1">
-        <v>1539.250000</v>
+        <v>1539.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.847000</v>
+        <v>-613.84699999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>42803.008329</v>
+        <v>42803.008328999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>11.889725</v>
       </c>
       <c r="BK3" s="1">
-        <v>1693.320000</v>
+        <v>1693.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.170000</v>
+        <v>-1060.17</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>42814.003147</v>
+        <v>42814.003147000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.892779</v>
+        <v>11.892779000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1834.160000</v>
+        <v>-1834.16</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>42825.680955</v>
+        <v>42825.680955000003</v>
       </c>
       <c r="BT3" s="1">
         <v>11.896022</v>
       </c>
       <c r="BU3" s="1">
-        <v>2371.720000</v>
+        <v>2371.7199999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2727.240000</v>
+        <v>-2727.24</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>42836.361805</v>
@@ -963,60 +1379,60 @@
         <v>11.898989</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2857.650000</v>
+        <v>2857.65</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3706.400000</v>
+        <v>-3706.4</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>42847.537695</v>
+        <v>42847.537694999999</v>
       </c>
       <c r="CD3" s="1">
         <v>11.902094</v>
       </c>
       <c r="CE3" s="1">
-        <v>4284.870000</v>
+        <v>4284.87</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6075.130000</v>
+        <v>-6075.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>42675.534514</v>
+        <v>42675.534513999999</v>
       </c>
       <c r="B4" s="1">
         <v>11.854315</v>
       </c>
       <c r="C4" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="D4" s="1">
-        <v>-290.356000</v>
+        <v>-290.35599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>42685.897430</v>
+        <v>42685.897429999997</v>
       </c>
       <c r="G4" s="1">
         <v>11.857194</v>
       </c>
       <c r="H4" s="1">
-        <v>1277.240000</v>
+        <v>1277.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-251.926000</v>
+        <v>-251.92599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>42696.736007</v>
@@ -1025,133 +1441,133 @@
         <v>11.860204</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="N4" s="1">
-        <v>-195.793000</v>
+        <v>-195.79300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>42707.191704</v>
+        <v>42707.191703999997</v>
       </c>
       <c r="Q4" s="1">
         <v>11.863109</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.120000</v>
+        <v>1322.12</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.954000</v>
+        <v>-179.95400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>42717.701434</v>
+        <v>42717.701434000002</v>
       </c>
       <c r="V4" s="1">
         <v>11.866028</v>
       </c>
       <c r="W4" s="1">
-        <v>1335.460000</v>
+        <v>1335.46</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.164000</v>
+        <v>-168.16399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>42728.497822</v>
+        <v>42728.497821999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.869027</v>
+        <v>11.869027000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.887000</v>
+        <v>-167.887</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>42739.073667</v>
+        <v>42739.073666999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.871965</v>
+        <v>11.871964999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1366.970000</v>
+        <v>1366.97</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.267000</v>
+        <v>-178.267</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>42749.554976</v>
+        <v>42749.554975999999</v>
       </c>
       <c r="AK4" s="1">
         <v>11.874876</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.040000</v>
+        <v>1388.04</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.658000</v>
+        <v>-208.65799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>42760.154018</v>
+        <v>42760.154018000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.877821</v>
+        <v>11.877821000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.721000</v>
+        <v>-252.721</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>42771.161701</v>
+        <v>42771.161700999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>11.880878</v>
+        <v>11.880877999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.865000</v>
+        <v>-312.86500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>42781.975973</v>
+        <v>42781.975973000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.883882</v>
       </c>
       <c r="BA4" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.043000</v>
+        <v>-365.04300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>42792.645417</v>
@@ -1160,43 +1576,43 @@
         <v>11.886846</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.210000</v>
+        <v>1539.21</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.861000</v>
+        <v>-613.86099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>42803.242474</v>
+        <v>42803.242473999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.889790</v>
+        <v>11.88979</v>
       </c>
       <c r="BK4" s="1">
-        <v>1693.240000</v>
+        <v>1693.24</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1060.170000</v>
+        <v>-1060.17</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>42814.421771</v>
+        <v>42814.421771000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.892895</v>
+        <v>11.892894999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1987.110000</v>
+        <v>1987.11</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1834.210000</v>
+        <v>-1834.21</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>42826.091643</v>
@@ -1205,512 +1621,512 @@
         <v>11.896137</v>
       </c>
       <c r="BU4" s="1">
-        <v>2371.400000</v>
+        <v>2371.4</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2727.460000</v>
+        <v>-2727.46</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>42836.784429</v>
+        <v>42836.784428999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.899107</v>
+        <v>11.899107000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2857.380000</v>
+        <v>2857.38</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3706.150000</v>
+        <v>-3706.15</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>42848.071854</v>
+        <v>42848.071854000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.902242</v>
+        <v>11.902241999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4282.000000</v>
+        <v>4282</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6054.800000</v>
+        <v>-6054.8</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>42675.875762</v>
+        <v>42675.875762000003</v>
       </c>
       <c r="B5" s="1">
-        <v>11.854410</v>
+        <v>11.85441</v>
       </c>
       <c r="C5" s="1">
-        <v>1255.050000</v>
+        <v>1255.05</v>
       </c>
       <c r="D5" s="1">
-        <v>-290.523000</v>
+        <v>-290.52300000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>42686.243140</v>
+        <v>42686.243139999999</v>
       </c>
       <c r="G5" s="1">
-        <v>11.857290</v>
+        <v>11.857290000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1276.810000</v>
+        <v>1276.81</v>
       </c>
       <c r="I5" s="1">
-        <v>-251.599000</v>
+        <v>-251.59899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>42697.083237</v>
+        <v>42697.083236999999</v>
       </c>
       <c r="L5" s="1">
         <v>11.860301</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.450000</v>
+        <v>1310.45</v>
       </c>
       <c r="N5" s="1">
-        <v>-195.940000</v>
+        <v>-195.94</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>42707.847881</v>
+        <v>42707.847881000002</v>
       </c>
       <c r="Q5" s="1">
         <v>11.863291</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.070000</v>
+        <v>1322.07</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.860000</v>
+        <v>-179.86</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>42718.359099</v>
+        <v>42718.359099000001</v>
       </c>
       <c r="V5" s="1">
         <v>11.866211</v>
       </c>
       <c r="W5" s="1">
-        <v>1335.790000</v>
+        <v>1335.79</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.453000</v>
+        <v>-168.453</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>42728.880237</v>
+        <v>42728.880236999998</v>
       </c>
       <c r="AA5" s="1">
         <v>11.869133</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.650000</v>
+        <v>1353.65</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.924000</v>
+        <v>-167.92400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>42739.414798</v>
+        <v>42739.414797999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.872060</v>
+        <v>11.872059999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1366.940000</v>
+        <v>1366.94</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.197000</v>
+        <v>-178.197</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42749.907137</v>
+        <v>42749.907137000002</v>
       </c>
       <c r="AK5" s="1">
         <v>11.874974</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.030000</v>
+        <v>1388.03</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.659000</v>
+        <v>-208.65899999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>42760.515105</v>
+        <v>42760.515104999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.877921</v>
+        <v>11.877921000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1409.940000</v>
+        <v>1409.94</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.723000</v>
+        <v>-252.72300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>42771.579332</v>
+        <v>42771.579332000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.880994</v>
+        <v>11.880993999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.899000</v>
+        <v>-312.899</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>42782.411957</v>
+        <v>42782.411956999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.884003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.035000</v>
+        <v>-365.03500000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>42792.941559</v>
+        <v>42792.941558999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.886928</v>
+        <v>11.886927999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.240000</v>
+        <v>1539.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.908000</v>
+        <v>-613.90800000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>42803.618905</v>
+        <v>42803.618905000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.889894</v>
       </c>
       <c r="BK5" s="1">
-        <v>1693.260000</v>
+        <v>1693.26</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1060.110000</v>
+        <v>-1060.1099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>42814.819103</v>
+        <v>42814.819103000002</v>
       </c>
       <c r="BO5" s="1">
         <v>11.893005</v>
       </c>
       <c r="BP5" s="1">
-        <v>1986.950000</v>
+        <v>1986.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1834.240000</v>
+        <v>-1834.24</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>42826.522666</v>
+        <v>42826.522665999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.896256</v>
+        <v>11.896255999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2371.430000</v>
+        <v>2371.4299999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2728.100000</v>
+        <v>-2728.1</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>42837.222860</v>
+        <v>42837.222860000002</v>
       </c>
       <c r="BY5" s="1">
         <v>11.899229</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2857.300000</v>
+        <v>2857.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3705.600000</v>
+        <v>-3705.6</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>42848.615967</v>
+        <v>42848.615966999998</v>
       </c>
       <c r="CD5" s="1">
         <v>11.902393</v>
       </c>
       <c r="CE5" s="1">
-        <v>4274.570000</v>
+        <v>4274.57</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6076.190000</v>
+        <v>-6076.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>42676.220522</v>
+        <v>42676.220522000003</v>
       </c>
       <c r="B6" s="1">
-        <v>11.854506</v>
+        <v>11.854506000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1255.190000</v>
+        <v>1255.19</v>
       </c>
       <c r="D6" s="1">
-        <v>-290.438000</v>
+        <v>-290.43799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>42686.585907</v>
+        <v>42686.585907000001</v>
       </c>
       <c r="G6" s="1">
-        <v>11.857385</v>
+        <v>11.857385000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1276.570000</v>
+        <v>1276.57</v>
       </c>
       <c r="I6" s="1">
-        <v>-252.261000</v>
+        <v>-252.261</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>42697.748837</v>
+        <v>42697.748836999999</v>
       </c>
       <c r="L6" s="1">
         <v>11.860486</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.470000</v>
+        <v>1310.47</v>
       </c>
       <c r="N6" s="1">
-        <v>-195.662000</v>
+        <v>-195.66200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>42708.238266</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.863400</v>
+        <v>11.8634</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.200000</v>
+        <v>1322.2</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.927000</v>
+        <v>-179.92699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>42718.733082</v>
+        <v>42718.733081999999</v>
       </c>
       <c r="V6" s="1">
         <v>11.866315</v>
       </c>
       <c r="W6" s="1">
-        <v>1335.600000</v>
+        <v>1335.6</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.435000</v>
+        <v>-168.435</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>42729.225485</v>
+        <v>42729.225485000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.869229</v>
+        <v>11.869229000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.530000</v>
+        <v>1353.53</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.918000</v>
+        <v>-167.91800000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>42739.758989</v>
+        <v>42739.758989000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.872155</v>
+        <v>11.872154999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1366.920000</v>
+        <v>1366.92</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.233000</v>
+        <v>-178.233</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>42750.256815</v>
+        <v>42750.256815000001</v>
       </c>
       <c r="AK6" s="1">
         <v>11.875071</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.020000</v>
+        <v>1388.02</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.637000</v>
+        <v>-208.637</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>42760.940146</v>
+        <v>42760.940146000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.878039</v>
+        <v>11.878038999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.748000</v>
+        <v>-252.74799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>42771.878916</v>
+        <v>42771.878916000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.881077</v>
+        <v>11.881076999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.879000</v>
+        <v>-312.87900000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>42782.693220</v>
+        <v>42782.693220000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.884081</v>
       </c>
       <c r="BA6" s="1">
-        <v>1453.990000</v>
+        <v>1453.99</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.051000</v>
+        <v>-365.05099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>42793.302318</v>
+        <v>42793.302318000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.887028</v>
+        <v>11.887028000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.250000</v>
+        <v>1539.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.852000</v>
+        <v>-613.85199999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>42803.995368</v>
+        <v>42803.995368000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>11.889999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1693.220000</v>
+        <v>1693.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1060.130000</v>
+        <v>-1060.1300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>42815.241690</v>
+        <v>42815.241690000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.893123</v>
+        <v>11.893122999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1986.870000</v>
+        <v>1986.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1834.240000</v>
+        <v>-1834.24</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>42826.954715</v>
@@ -1719,90 +2135,90 @@
         <v>11.896376</v>
       </c>
       <c r="BU6" s="1">
-        <v>2371.180000</v>
+        <v>2371.1799999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2728.440000</v>
+        <v>-2728.44</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>42837.657355</v>
+        <v>42837.657355000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>11.899349</v>
+        <v>11.899349000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2857.030000</v>
+        <v>2857.03</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3706.560000</v>
+        <v>-3706.56</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>42849.154126</v>
+        <v>42849.154126000001</v>
       </c>
       <c r="CD6" s="1">
         <v>11.902543</v>
       </c>
       <c r="CE6" s="1">
-        <v>4290.210000</v>
+        <v>4290.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6057.970000</v>
+        <v>-6057.97</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>42676.871233</v>
+        <v>42676.871232999998</v>
       </c>
       <c r="B7" s="1">
-        <v>11.854686</v>
+        <v>11.854685999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1254.920000</v>
+        <v>1254.92</v>
       </c>
       <c r="D7" s="1">
-        <v>-290.310000</v>
+        <v>-290.31</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>42687.255516</v>
+        <v>42687.255515999997</v>
       </c>
       <c r="G7" s="1">
         <v>11.857571</v>
       </c>
       <c r="H7" s="1">
-        <v>1277.200000</v>
+        <v>1277.2</v>
       </c>
       <c r="I7" s="1">
-        <v>-251.581000</v>
+        <v>-251.58099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>42698.117365</v>
+        <v>42698.117364999998</v>
       </c>
       <c r="L7" s="1">
         <v>11.860588</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.290000</v>
+        <v>1310.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-196.037000</v>
+        <v>-196.03700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>42708.585431</v>
@@ -1811,1041 +2227,1041 @@
         <v>11.863496</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.240000</v>
+        <v>1322.24</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.927000</v>
+        <v>-179.92699999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>42719.076313</v>
+        <v>42719.076312999998</v>
       </c>
       <c r="V7" s="1">
-        <v>11.866410</v>
+        <v>11.86641</v>
       </c>
       <c r="W7" s="1">
-        <v>1335.510000</v>
+        <v>1335.51</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.442000</v>
+        <v>-168.44200000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>42729.575137</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.869326</v>
+        <v>11.869325999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.996000</v>
+        <v>-167.99600000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>42740.189517</v>
+        <v>42740.189516999999</v>
       </c>
       <c r="AF7" s="1">
         <v>11.872275</v>
       </c>
       <c r="AG7" s="1">
-        <v>1366.940000</v>
+        <v>1366.94</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.282000</v>
+        <v>-178.28200000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>42750.690320</v>
+        <v>42750.690320000002</v>
       </c>
       <c r="AK7" s="1">
         <v>11.875192</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.040000</v>
+        <v>1388.04</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.673000</v>
+        <v>-208.673</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>42761.237745</v>
+        <v>42761.237744999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.878122</v>
+        <v>11.878121999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.714000</v>
+        <v>-252.714</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>42772.255906</v>
+        <v>42772.255905999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.881182</v>
+        <v>11.881182000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.879000</v>
+        <v>-312.87900000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>42783.053284</v>
+        <v>42783.053284000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.884181</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.020000</v>
+        <v>1454.02</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.093000</v>
+        <v>-365.09300000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>42793.663206</v>
+        <v>42793.663205999997</v>
       </c>
       <c r="BE7" s="1">
         <v>11.887129</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.230000</v>
+        <v>1539.23</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.859000</v>
+        <v>-613.85900000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>42804.772599</v>
+        <v>42804.772599000004</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.890215</v>
       </c>
       <c r="BK7" s="1">
-        <v>1693.220000</v>
+        <v>1693.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1060.050000</v>
+        <v>-1060.05</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>42816.056088</v>
+        <v>42816.056087999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.893349</v>
+        <v>11.893349000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1834.100000</v>
+        <v>-1834.1</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>42827.362923</v>
+        <v>42827.362923000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.896490</v>
+        <v>11.89649</v>
       </c>
       <c r="BU7" s="1">
-        <v>2371.080000</v>
+        <v>2371.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2729.060000</v>
+        <v>-2729.06</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>42838.071533</v>
+        <v>42838.071533000002</v>
       </c>
       <c r="BY7" s="1">
         <v>11.899464</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2857.620000</v>
+        <v>2857.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3706.170000</v>
+        <v>-3706.17</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>42849.692780</v>
+        <v>42849.692779999998</v>
       </c>
       <c r="CD7" s="1">
         <v>11.902692</v>
       </c>
       <c r="CE7" s="1">
-        <v>4271.440000</v>
+        <v>4271.4399999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6064.280000</v>
+        <v>-6064.28</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>42677.240752</v>
+        <v>42677.240751999998</v>
       </c>
       <c r="B8" s="1">
         <v>11.854789</v>
       </c>
       <c r="C8" s="1">
-        <v>1254.820000</v>
+        <v>1254.82</v>
       </c>
       <c r="D8" s="1">
-        <v>-290.332000</v>
+        <v>-290.33199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>42687.624994</v>
+        <v>42687.624993999998</v>
       </c>
       <c r="G8" s="1">
-        <v>11.857674</v>
+        <v>11.857673999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1276.810000</v>
+        <v>1276.81</v>
       </c>
       <c r="I8" s="1">
-        <v>-252.088000</v>
+        <v>-252.08799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>42698.461601</v>
+        <v>42698.461601000003</v>
       </c>
       <c r="L8" s="1">
-        <v>11.860684</v>
+        <v>11.860683999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="N8" s="1">
-        <v>-195.960000</v>
+        <v>-195.96</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>42708.935607</v>
+        <v>42708.935606999999</v>
       </c>
       <c r="Q8" s="1">
         <v>11.863593</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.170000</v>
+        <v>1322.17</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.906000</v>
+        <v>-179.90600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>42719.417570</v>
+        <v>42719.417569999998</v>
       </c>
       <c r="V8" s="1">
         <v>11.866505</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.570000</v>
+        <v>1335.57</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.397000</v>
+        <v>-168.39699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>42730.005660</v>
+        <v>42730.005660000003</v>
       </c>
       <c r="AA8" s="1">
         <v>11.869446</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.590000</v>
+        <v>1353.59</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.911000</v>
+        <v>-167.911</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>42740.470252</v>
+        <v>42740.470251999999</v>
       </c>
       <c r="AF8" s="1">
         <v>11.872353</v>
       </c>
       <c r="AG8" s="1">
-        <v>1366.930000</v>
+        <v>1366.93</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.282000</v>
+        <v>-178.28200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>42750.954192</v>
+        <v>42750.954191999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.875265</v>
+        <v>11.875265000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.050000</v>
+        <v>1388.05</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.658000</v>
+        <v>-208.65799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>42761.596848</v>
+        <v>42761.596848000001</v>
       </c>
       <c r="AP8" s="1">
         <v>11.878221</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.718000</v>
+        <v>-252.71799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>42772.618450</v>
+        <v>42772.618450000002</v>
       </c>
       <c r="AU8" s="1">
         <v>11.881283</v>
       </c>
       <c r="AV8" s="1">
-        <v>1434.640000</v>
+        <v>1434.64</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.863000</v>
+        <v>-312.863</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>42783.410901</v>
+        <v>42783.410901000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.884281</v>
       </c>
       <c r="BA8" s="1">
-        <v>1453.970000</v>
+        <v>1453.97</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.105000</v>
+        <v>-365.10500000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>42794.386374</v>
+        <v>42794.386374000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>11.887330</v>
+        <v>11.88733</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.220000</v>
+        <v>1539.22</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.842000</v>
+        <v>-613.84199999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>42805.146087</v>
+        <v>42805.146087000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.890318</v>
+        <v>11.890318000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1693.190000</v>
+        <v>1693.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>42816.475704</v>
+        <v>42816.475703999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.893465</v>
+        <v>11.893465000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1986.900000</v>
+        <v>1986.9</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1834.180000</v>
+        <v>-1834.18</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>42827.790473</v>
+        <v>42827.790473000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.896608</v>
+        <v>11.896608000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2371.090000</v>
+        <v>2371.09</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2729.560000</v>
+        <v>-2729.56</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>42838.831512</v>
+        <v>42838.831511999997</v>
       </c>
       <c r="BY8" s="1">
         <v>11.899675</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2857.070000</v>
+        <v>2857.07</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3705.860000</v>
+        <v>-3705.86</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>42850.553835</v>
+        <v>42850.553834999999</v>
       </c>
       <c r="CD8" s="1">
         <v>11.902932</v>
       </c>
       <c r="CE8" s="1">
-        <v>4283.850000</v>
+        <v>4283.8500000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6057.590000</v>
+        <v>-6057.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>42677.584977</v>
+        <v>42677.584976999999</v>
       </c>
       <c r="B9" s="1">
-        <v>11.854885</v>
+        <v>11.854884999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="D9" s="1">
-        <v>-290.357000</v>
+        <v>-290.35700000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>42687.968723</v>
+        <v>42687.968722999998</v>
       </c>
       <c r="G9" s="1">
-        <v>11.857769</v>
+        <v>11.857768999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1277.680000</v>
+        <v>1277.68</v>
       </c>
       <c r="I9" s="1">
-        <v>-251.292000</v>
+        <v>-251.292</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>42698.811267</v>
+        <v>42698.811266999997</v>
       </c>
       <c r="L9" s="1">
-        <v>11.860781</v>
+        <v>11.860780999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.430000</v>
+        <v>1310.43</v>
       </c>
       <c r="N9" s="1">
-        <v>-195.899000</v>
+        <v>-195.899</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>42709.361702</v>
+        <v>42709.361702000002</v>
       </c>
       <c r="Q9" s="1">
         <v>11.863712</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.180000</v>
+        <v>1322.18</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.993000</v>
+        <v>-179.99299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>42719.852551</v>
+        <v>42719.852551000004</v>
       </c>
       <c r="V9" s="1">
         <v>11.866626</v>
       </c>
       <c r="W9" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.432000</v>
+        <v>-168.43199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>42730.273499</v>
+        <v>42730.273499000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.869520</v>
+        <v>11.86952</v>
       </c>
       <c r="AB9" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.853000</v>
+        <v>-167.85300000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>42740.812988</v>
+        <v>42740.812987999998</v>
       </c>
       <c r="AF9" s="1">
         <v>11.872448</v>
       </c>
       <c r="AG9" s="1">
-        <v>1366.930000</v>
+        <v>1366.93</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.288000</v>
+        <v>-178.28800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>42751.303903</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.875362</v>
+        <v>11.875362000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.030000</v>
+        <v>1388.03</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.635000</v>
+        <v>-208.63499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>42761.957936</v>
+        <v>42761.957935999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.878322</v>
+        <v>11.878322000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.753000</v>
+        <v>-252.75299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>42773.350049</v>
+        <v>42773.350049000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.881486</v>
+        <v>11.881486000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.863000</v>
+        <v>-312.863</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>42784.129602</v>
+        <v>42784.129602000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.884480</v>
+        <v>11.88448</v>
       </c>
       <c r="BA9" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.080000</v>
+        <v>-365.08</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>42794.745508</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.887429</v>
+        <v>11.887428999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.220000</v>
+        <v>1539.22</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.874000</v>
+        <v>-613.87400000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>42805.523543</v>
+        <v>42805.523543000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.890423</v>
       </c>
       <c r="BK9" s="1">
-        <v>1693.220000</v>
+        <v>1693.22</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.060000</v>
+        <v>-1060.06</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>42816.872505</v>
+        <v>42816.872504999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.893576</v>
+        <v>11.893575999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1986.840000</v>
+        <v>1986.84</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1833.980000</v>
+        <v>-1833.98</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>42828.539400</v>
+        <v>42828.539400000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.896816</v>
+        <v>11.896815999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2371.640000</v>
+        <v>2371.64</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2729.830000</v>
+        <v>-2729.83</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>42838.950961</v>
+        <v>42838.950961000002</v>
       </c>
       <c r="BY9" s="1">
         <v>11.899709</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2856.760000</v>
+        <v>2856.76</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3706.400000</v>
+        <v>-3706.4</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>42850.773067</v>
+        <v>42850.773067000002</v>
       </c>
       <c r="CD9" s="1">
         <v>11.902993</v>
       </c>
       <c r="CE9" s="1">
-        <v>4286.050000</v>
+        <v>4286.05</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6055.090000</v>
+        <v>-6055.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>42677.928241</v>
+        <v>42677.928241000001</v>
       </c>
       <c r="B10" s="1">
-        <v>11.854980</v>
+        <v>11.854979999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1254.850000</v>
+        <v>1254.8499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-290.250000</v>
+        <v>-290.25</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>42688.331297</v>
+        <v>42688.331296999997</v>
       </c>
       <c r="G10" s="1">
-        <v>11.857870</v>
+        <v>11.85787</v>
       </c>
       <c r="H10" s="1">
-        <v>1277.420000</v>
+        <v>1277.42</v>
       </c>
       <c r="I10" s="1">
-        <v>-251.694000</v>
+        <v>-251.69399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>42699.232868</v>
+        <v>42699.232867999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.860898</v>
+        <v>11.860898000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.530000</v>
+        <v>1310.53</v>
       </c>
       <c r="N10" s="1">
-        <v>-195.661000</v>
+        <v>-195.661</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>42709.642405</v>
+        <v>42709.642404999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.863790</v>
+        <v>11.86379</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.110000</v>
+        <v>1322.11</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.907000</v>
+        <v>-179.90700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>42720.133287</v>
+        <v>42720.133286999997</v>
       </c>
       <c r="V10" s="1">
         <v>11.866704</v>
       </c>
       <c r="W10" s="1">
-        <v>1335.800000</v>
+        <v>1335.8</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.373000</v>
+        <v>-168.37299999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>42730.621721</v>
+        <v>42730.621721000003</v>
       </c>
       <c r="AA10" s="1">
         <v>11.869617</v>
       </c>
       <c r="AB10" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.794000</v>
+        <v>-167.79400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>42741.157212</v>
+        <v>42741.157211999998</v>
       </c>
       <c r="AF10" s="1">
         <v>11.872544</v>
       </c>
       <c r="AG10" s="1">
-        <v>1366.960000</v>
+        <v>1366.96</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.316000</v>
+        <v>-178.316</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>42751.652596</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.875459</v>
+        <v>11.875458999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.040000</v>
+        <v>1388.04</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.652000</v>
+        <v>-208.65199999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>42762.678127</v>
+        <v>42762.678126999999</v>
       </c>
       <c r="AP10" s="1">
         <v>11.878522</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.726000</v>
+        <v>-252.726</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>42773.732464</v>
+        <v>42773.732464000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.881592</v>
+        <v>11.881591999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.871000</v>
+        <v>-312.87099999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>42784.487217</v>
+        <v>42784.487217000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.884580</v>
+        <v>11.88458</v>
       </c>
       <c r="BA10" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.065000</v>
+        <v>-365.065</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>42795.107060</v>
+        <v>42795.107060000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.887530</v>
+        <v>11.88753</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.220000</v>
+        <v>1539.22</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.833000</v>
+        <v>-613.83299999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>42806.242742</v>
+        <v>42806.242742000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.890623</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.190000</v>
+        <v>1693.19</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1060.090000</v>
+        <v>-1060.0899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>42817.607581</v>
+        <v>42817.607580999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.893780</v>
+        <v>11.89378</v>
       </c>
       <c r="BP10" s="1">
-        <v>1986.820000</v>
+        <v>1986.82</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1834.150000</v>
+        <v>-1834.15</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>42828.670343</v>
+        <v>42828.670342999998</v>
       </c>
       <c r="BT10" s="1">
         <v>11.896853</v>
       </c>
       <c r="BU10" s="1">
-        <v>2371.720000</v>
+        <v>2371.7199999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2730.530000</v>
+        <v>-2730.53</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>42839.389882</v>
+        <v>42839.389882000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.899831</v>
+        <v>11.899831000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2857.380000</v>
+        <v>2857.38</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3706.320000</v>
+        <v>-3706.32</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>42851.289402</v>
+        <v>42851.289402000002</v>
       </c>
       <c r="CD10" s="1">
         <v>11.903136</v>
       </c>
       <c r="CE10" s="1">
-        <v>4267.710000</v>
+        <v>4267.71</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6061.620000</v>
+        <v>-6061.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>42678.358278</v>
       </c>
       <c r="B11" s="1">
-        <v>11.855100</v>
+        <v>11.8551</v>
       </c>
       <c r="C11" s="1">
-        <v>1255.130000</v>
+        <v>1255.1300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-289.999000</v>
+        <v>-289.99900000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>42689.013298</v>
+        <v>42689.013297999998</v>
       </c>
       <c r="G11" s="1">
-        <v>11.858059</v>
+        <v>11.858059000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1277.200000</v>
+        <v>1277.2</v>
       </c>
       <c r="I11" s="1">
-        <v>-251.724000</v>
+        <v>-251.72399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>42699.508179</v>
+        <v>42699.508178999997</v>
       </c>
       <c r="L11" s="1">
-        <v>11.860974</v>
+        <v>11.860974000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.270000</v>
+        <v>1310.27</v>
       </c>
       <c r="N11" s="1">
-        <v>-195.640000</v>
+        <v>-195.64</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>42709.991093</v>
+        <v>42709.991092999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.863886</v>
+        <v>11.863886000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.070000</v>
+        <v>1322.07</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.873000</v>
+        <v>-179.87299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>42720.475304</v>
@@ -2854,13 +3270,13 @@
         <v>11.866799</v>
       </c>
       <c r="W11" s="1">
-        <v>1335.760000</v>
+        <v>1335.76</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.458000</v>
+        <v>-168.458</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>42730.971865</v>
@@ -2869,181 +3285,181 @@
         <v>11.869714</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.540000</v>
+        <v>1353.54</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.839000</v>
+        <v>-167.839</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>42741.844203</v>
+        <v>42741.844203000001</v>
       </c>
       <c r="AF11" s="1">
         <v>11.872735</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.317000</v>
+        <v>-178.31700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>42752.349932</v>
+        <v>42752.349931999997</v>
       </c>
       <c r="AK11" s="1">
         <v>11.875653</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.000000</v>
+        <v>1388</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.635000</v>
+        <v>-208.63499999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>42763.037230</v>
+        <v>42763.037230000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>11.878621</v>
+        <v>11.878621000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1409.930000</v>
+        <v>1409.93</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.756000</v>
+        <v>-252.756</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>42774.097023</v>
+        <v>42774.097023000002</v>
       </c>
       <c r="AU11" s="1">
         <v>11.881694</v>
       </c>
       <c r="AV11" s="1">
-        <v>1434.630000</v>
+        <v>1434.63</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.863000</v>
+        <v>-312.863</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>42784.845859</v>
+        <v>42784.845859000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.884679</v>
       </c>
       <c r="BA11" s="1">
-        <v>1453.970000</v>
+        <v>1453.97</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.086000</v>
+        <v>-365.08600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>42795.784595</v>
+        <v>42795.784594999997</v>
       </c>
       <c r="BE11" s="1">
         <v>11.887718</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.210000</v>
+        <v>1539.21</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.860000</v>
+        <v>-613.86</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>42806.675253</v>
+        <v>42806.675253000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.890743</v>
+        <v>11.890743000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1693.210000</v>
+        <v>1693.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.110000</v>
+        <v>-1060.1099999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>42818.118454</v>
+        <v>42818.118454000003</v>
       </c>
       <c r="BO11" s="1">
         <v>11.893922</v>
       </c>
       <c r="BP11" s="1">
-        <v>1986.810000</v>
+        <v>1986.81</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1834.170000</v>
+        <v>-1834.17</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>42829.079075</v>
+        <v>42829.079075000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.896966</v>
+        <v>11.896966000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2372.250000</v>
+        <v>2372.25</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2730.760000</v>
+        <v>-2730.76</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>42839.847700</v>
+        <v>42839.847699999998</v>
       </c>
       <c r="BY11" s="1">
         <v>11.899958</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2856.860000</v>
+        <v>2856.86</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3705.330000</v>
+        <v>-3705.33</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>42851.864762</v>
+        <v>42851.864761999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.903296</v>
+        <v>11.903295999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4278.640000</v>
+        <v>4278.6400000000003</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6054.520000</v>
+        <v>-6054.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>42678.625087</v>
       </c>
@@ -3051,103 +3467,103 @@
         <v>11.855174</v>
       </c>
       <c r="C12" s="1">
-        <v>1255.150000</v>
+        <v>1255.1500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-290.439000</v>
+        <v>-290.43900000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>42689.360496</v>
+        <v>42689.360496000001</v>
       </c>
       <c r="G12" s="1">
-        <v>11.858156</v>
+        <v>11.858155999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1276.770000</v>
+        <v>1276.77</v>
       </c>
       <c r="I12" s="1">
-        <v>-251.577000</v>
+        <v>-251.577</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>42699.859810</v>
+        <v>42699.859810000002</v>
       </c>
       <c r="L12" s="1">
         <v>11.861072</v>
       </c>
       <c r="M12" s="1">
-        <v>1310.210000</v>
+        <v>1310.21</v>
       </c>
       <c r="N12" s="1">
-        <v>-195.854000</v>
+        <v>-195.85400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>42710.335844</v>
+        <v>42710.335844000001</v>
       </c>
       <c r="Q12" s="1">
         <v>11.863982</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.220000</v>
+        <v>1322.22</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.864000</v>
+        <v>-179.864</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>42720.819784</v>
+        <v>42720.819783999999</v>
       </c>
       <c r="V12" s="1">
         <v>11.866894</v>
       </c>
       <c r="W12" s="1">
-        <v>1335.600000</v>
+        <v>1335.6</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.463000</v>
+        <v>-168.46299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>42731.670269</v>
+        <v>42731.670269000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.869908</v>
+        <v>11.869908000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.570000</v>
+        <v>1353.57</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.848000</v>
+        <v>-167.84800000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>42742.187402</v>
+        <v>42742.187402000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.872830</v>
+        <v>11.87283</v>
       </c>
       <c r="AG12" s="1">
-        <v>1366.940000</v>
+        <v>1366.94</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.240000</v>
+        <v>-178.24</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>42752.694183</v>
@@ -3156,240 +3572,240 @@
         <v>11.875748</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.000000</v>
+        <v>1388</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.649000</v>
+        <v>-208.649</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>42763.397359</v>
+        <v>42763.397359000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.878721</v>
+        <v>11.878721000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1409.930000</v>
+        <v>1409.93</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.681000</v>
+        <v>-252.68100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>42774.769599</v>
+        <v>42774.769598999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.881880</v>
+        <v>11.881880000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.848000</v>
+        <v>-312.84800000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>42785.524353</v>
+        <v>42785.524353000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.884868</v>
+        <v>11.884868000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.043000</v>
+        <v>-365.04300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>42796.217107</v>
+        <v>42796.217106999997</v>
       </c>
       <c r="BE12" s="1">
         <v>11.887838</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.240000</v>
+        <v>1539.24</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.849000</v>
+        <v>-613.84900000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>42807.076526</v>
+        <v>42807.076525999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.890855</v>
       </c>
       <c r="BK12" s="1">
-        <v>1693.220000</v>
+        <v>1693.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>42818.553975</v>
+        <v>42818.553975000003</v>
       </c>
       <c r="BO12" s="1">
         <v>11.894043</v>
       </c>
       <c r="BP12" s="1">
-        <v>1986.700000</v>
+        <v>1986.7</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1834.100000</v>
+        <v>-1834.1</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>42829.507095</v>
+        <v>42829.507095000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.897085</v>
+        <v>11.897085000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2372.510000</v>
+        <v>2372.5100000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2730.710000</v>
+        <v>-2730.71</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>42840.296072</v>
+        <v>42840.296071999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.900082</v>
+        <v>11.900081999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2856.400000</v>
+        <v>2856.4</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3705.770000</v>
+        <v>-3705.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>42852.374190</v>
+        <v>42852.374190000002</v>
       </c>
       <c r="CD12" s="1">
         <v>11.903437</v>
       </c>
       <c r="CE12" s="1">
-        <v>4291.410000</v>
+        <v>4291.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6058.950000</v>
+        <v>-6058.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>42678.965870</v>
+        <v>42678.96587</v>
       </c>
       <c r="B13" s="1">
-        <v>11.855268</v>
+        <v>11.855268000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1255.010000</v>
+        <v>1255.01</v>
       </c>
       <c r="D13" s="1">
-        <v>-290.319000</v>
+        <v>-290.31900000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>42689.703729</v>
+        <v>42689.703729000001</v>
       </c>
       <c r="G13" s="1">
-        <v>11.858251</v>
+        <v>11.858250999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1278.170000</v>
+        <v>1278.17</v>
       </c>
       <c r="I13" s="1">
-        <v>-251.940000</v>
+        <v>-251.94</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>42700.202547</v>
+        <v>42700.202547000001</v>
       </c>
       <c r="L13" s="1">
         <v>11.861167</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.650000</v>
+        <v>1310.6500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-195.861000</v>
+        <v>-195.86099999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>42711.034675</v>
+        <v>42711.034675000003</v>
       </c>
       <c r="Q13" s="1">
         <v>11.864176</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.260000</v>
+        <v>1322.26</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.974000</v>
+        <v>-179.97399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>42721.508197</v>
+        <v>42721.508197000003</v>
       </c>
       <c r="V13" s="1">
         <v>11.867086</v>
       </c>
       <c r="W13" s="1">
-        <v>1335.630000</v>
+        <v>1335.63</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.345000</v>
+        <v>-168.345</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>42732.016471</v>
+        <v>42732.016471000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.870005</v>
+        <v>11.870005000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.460000</v>
+        <v>1353.46</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.001000</v>
+        <v>-168.001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>42742.530671</v>
@@ -3398,73 +3814,73 @@
         <v>11.872925</v>
       </c>
       <c r="AG13" s="1">
-        <v>1366.920000</v>
+        <v>1366.92</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.291000</v>
+        <v>-178.291</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>42753.046813</v>
+        <v>42753.046813000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.875846</v>
+        <v>11.875845999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.030000</v>
+        <v>1388.03</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.666000</v>
+        <v>-208.666</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>42764.075894</v>
+        <v>42764.075894000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.878910</v>
+        <v>11.878909999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.728000</v>
+        <v>-252.72800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>42775.227407</v>
+        <v>42775.227406999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.882008</v>
+        <v>11.882008000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1434.650000</v>
+        <v>1434.65</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.893000</v>
+        <v>-312.89299999999997</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>42785.924663</v>
+        <v>42785.924662999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.884979</v>
       </c>
       <c r="BA13" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.046000</v>
+        <v>-365.04599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>42796.577202</v>
@@ -3473,225 +3889,225 @@
         <v>11.887938</v>
       </c>
       <c r="BF13" s="1">
-        <v>1539.190000</v>
+        <v>1539.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.826000</v>
+        <v>-613.82600000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>42807.453973</v>
+        <v>42807.453973000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.890959</v>
+        <v>11.890959000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.200000</v>
+        <v>1693.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.070000</v>
+        <v>-1060.07</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>42819.191798</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.894220</v>
+        <v>11.894220000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1986.750000</v>
+        <v>1986.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1833.920000</v>
+        <v>-1833.92</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>42829.928694</v>
+        <v>42829.928694000002</v>
       </c>
       <c r="BT13" s="1">
         <v>11.897202</v>
       </c>
       <c r="BU13" s="1">
-        <v>2372.870000</v>
+        <v>2372.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2731.040000</v>
+        <v>-2731.04</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>42840.753881</v>
+        <v>42840.753880999997</v>
       </c>
       <c r="BY13" s="1">
         <v>11.900209</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2856.880000</v>
+        <v>2856.88</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3705.970000</v>
+        <v>-3705.97</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>42852.893960</v>
+        <v>42852.893960000001</v>
       </c>
       <c r="CD13" s="1">
         <v>11.903582</v>
       </c>
       <c r="CE13" s="1">
-        <v>4275.230000</v>
+        <v>4275.2299999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6054.690000</v>
+        <v>-6054.69</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>42679.309071</v>
+        <v>42679.309071000003</v>
       </c>
       <c r="B14" s="1">
         <v>11.855364</v>
       </c>
       <c r="C14" s="1">
-        <v>1255.060000</v>
+        <v>1255.06</v>
       </c>
       <c r="D14" s="1">
-        <v>-290.206000</v>
+        <v>-290.20600000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>42690.392176</v>
+        <v>42690.392176000001</v>
       </c>
       <c r="G14" s="1">
         <v>11.858442</v>
       </c>
       <c r="H14" s="1">
-        <v>1276.570000</v>
+        <v>1276.57</v>
       </c>
       <c r="I14" s="1">
-        <v>-252.389000</v>
+        <v>-252.38900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>42700.897938</v>
+        <v>42700.897938000002</v>
       </c>
       <c r="L14" s="1">
         <v>11.861361</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.180000</v>
+        <v>1310.18</v>
       </c>
       <c r="N14" s="1">
-        <v>-195.916000</v>
+        <v>-195.916</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>42711.381876</v>
+        <v>42711.381875999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.864273</v>
+        <v>11.864273000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S14" s="1">
-        <v>-180.162000</v>
+        <v>-180.16200000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>42721.864820</v>
+        <v>42721.864820000003</v>
       </c>
       <c r="V14" s="1">
-        <v>11.867185</v>
+        <v>11.867184999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1335.570000</v>
+        <v>1335.57</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.397000</v>
+        <v>-168.39699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>42732.363639</v>
+        <v>42732.363639000003</v>
       </c>
       <c r="AA14" s="1">
         <v>11.870101</v>
       </c>
       <c r="AB14" s="1">
-        <v>1353.540000</v>
+        <v>1353.54</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.945000</v>
+        <v>-167.94499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>42743.188360</v>
+        <v>42743.18836</v>
       </c>
       <c r="AF14" s="1">
         <v>11.873108</v>
       </c>
       <c r="AG14" s="1">
-        <v>1366.920000</v>
+        <v>1366.92</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.300000</v>
+        <v>-178.3</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>42753.773452</v>
+        <v>42753.773452000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>11.876048</v>
+        <v>11.876048000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.010000</v>
+        <v>1388.01</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.629000</v>
+        <v>-208.62899999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>42764.512861</v>
+        <v>42764.512861000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.879031</v>
+        <v>11.879030999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.728000</v>
+        <v>-252.72800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>42775.591966</v>
@@ -3700,225 +4116,225 @@
         <v>11.882109</v>
       </c>
       <c r="AV14" s="1">
-        <v>1434.590000</v>
+        <v>1434.59</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.855000</v>
+        <v>-312.85500000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>42786.306545</v>
+        <v>42786.306544999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.885085</v>
       </c>
       <c r="BA14" s="1">
-        <v>1453.990000</v>
+        <v>1453.99</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.045000</v>
+        <v>-365.04500000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>42796.939779</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.888039</v>
+        <v>11.888038999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.210000</v>
+        <v>1539.21</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.790000</v>
+        <v>-613.79</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>42807.874579</v>
+        <v>42807.874579000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>11.891076</v>
       </c>
       <c r="BK14" s="1">
-        <v>1693.220000</v>
+        <v>1693.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1060.100000</v>
+        <v>-1060.0999999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>42819.344069</v>
+        <v>42819.344068999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.894262</v>
+        <v>11.894261999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1986.730000</v>
+        <v>1986.73</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1833.930000</v>
+        <v>-1833.93</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>42830.337429</v>
+        <v>42830.337428999999</v>
       </c>
       <c r="BT14" s="1">
         <v>11.897316</v>
       </c>
       <c r="BU14" s="1">
-        <v>2373.420000</v>
+        <v>2373.42</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2730.840000</v>
+        <v>-2730.84</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>42841.202760</v>
+        <v>42841.20276</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.900334</v>
+        <v>11.900334000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2856.520000</v>
+        <v>2856.52</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3705.860000</v>
+        <v>-3705.86</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>42853.413767</v>
+        <v>42853.413766999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.903726</v>
+        <v>11.903726000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4278.350000</v>
+        <v>4278.3500000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6055.410000</v>
+        <v>-6055.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>42679.991564</v>
+        <v>42679.991564000004</v>
       </c>
       <c r="B15" s="1">
         <v>11.855553</v>
       </c>
       <c r="C15" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="D15" s="1">
-        <v>-290.598000</v>
+        <v>-290.59800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>42690.738401</v>
+        <v>42690.738401000002</v>
       </c>
       <c r="G15" s="1">
-        <v>11.858538</v>
+        <v>11.858537999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1276.350000</v>
+        <v>1276.3499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-252.056000</v>
+        <v>-252.05600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>42701.241200</v>
+        <v>42701.241199999997</v>
       </c>
       <c r="L15" s="1">
         <v>11.861456</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.180000</v>
+        <v>1310.18</v>
       </c>
       <c r="N15" s="1">
-        <v>-195.797000</v>
+        <v>-195.797</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>42711.732050</v>
+        <v>42711.732049999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.864370</v>
+        <v>11.864369999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.010000</v>
+        <v>1322.01</v>
       </c>
       <c r="S15" s="1">
-        <v>-180.044000</v>
+        <v>-180.04400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>42722.524500</v>
+        <v>42722.5245</v>
       </c>
       <c r="V15" s="1">
-        <v>11.867368</v>
+        <v>11.867368000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.424000</v>
+        <v>-168.42400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>42733.022854</v>
+        <v>42733.022854000003</v>
       </c>
       <c r="AA15" s="1">
         <v>11.870284</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.440000</v>
+        <v>1353.44</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.967000</v>
+        <v>-167.96700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>42743.559833</v>
+        <v>42743.559832999999</v>
       </c>
       <c r="AF15" s="1">
         <v>11.873211</v>
       </c>
       <c r="AG15" s="1">
-        <v>1366.950000</v>
+        <v>1366.95</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.282000</v>
+        <v>-178.28200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>42754.087431</v>
@@ -3927,103 +4343,103 @@
         <v>11.876135</v>
       </c>
       <c r="AL15" s="1">
-        <v>1387.990000</v>
+        <v>1387.99</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.702000</v>
+        <v>-208.702</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>42764.873420</v>
+        <v>42764.873420000004</v>
       </c>
       <c r="AP15" s="1">
         <v>11.879132</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1409.890000</v>
+        <v>1409.89</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.735000</v>
+        <v>-252.73500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>42775.956029</v>
+        <v>42775.956029000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.882210</v>
+        <v>11.882210000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1434.600000</v>
+        <v>1434.6</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.855000</v>
+        <v>-312.85500000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>42786.884383</v>
+        <v>42786.884382999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.885246</v>
       </c>
       <c r="BA15" s="1">
-        <v>1453.980000</v>
+        <v>1453.98</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.017000</v>
+        <v>-365.017</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>42797.360418</v>
+        <v>42797.360417999997</v>
       </c>
       <c r="BE15" s="1">
         <v>11.888156</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.200000</v>
+        <v>1539.2</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.796000</v>
+        <v>-613.79600000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>42808.226274</v>
+        <v>42808.226274000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>11.891174</v>
+        <v>11.891173999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1693.140000</v>
+        <v>1693.14</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1059.980000</v>
+        <v>-1059.98</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>42819.741894</v>
+        <v>42819.741893999999</v>
       </c>
       <c r="BO15" s="1">
         <v>11.894373</v>
       </c>
       <c r="BP15" s="1">
-        <v>1986.850000</v>
+        <v>1986.85</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1833.910000</v>
+        <v>-1833.91</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>42830.754535</v>
@@ -4032,13 +4448,13 @@
         <v>11.897432</v>
       </c>
       <c r="BU15" s="1">
-        <v>2373.810000</v>
+        <v>2373.81</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2730.930000</v>
+        <v>-2730.93</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>42841.649158</v>
@@ -4047,120 +4463,120 @@
         <v>11.900458</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2857.010000</v>
+        <v>2857.01</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3705.340000</v>
+        <v>-3705.34</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>42853.963651</v>
+        <v>42853.963650999998</v>
       </c>
       <c r="CD15" s="1">
         <v>11.903879</v>
       </c>
       <c r="CE15" s="1">
-        <v>4289.360000</v>
+        <v>4289.3599999999997</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6055.640000</v>
+        <v>-6055.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>42680.334300</v>
+        <v>42680.334300000002</v>
       </c>
       <c r="B16" s="1">
         <v>11.855648</v>
       </c>
       <c r="C16" s="1">
-        <v>1254.720000</v>
+        <v>1254.72</v>
       </c>
       <c r="D16" s="1">
-        <v>-290.227000</v>
+        <v>-290.22699999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>42691.084622</v>
+        <v>42691.084622000002</v>
       </c>
       <c r="G16" s="1">
         <v>11.858635</v>
       </c>
       <c r="H16" s="1">
-        <v>1277.740000</v>
+        <v>1277.74</v>
       </c>
       <c r="I16" s="1">
-        <v>-252.139000</v>
+        <v>-252.13900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>42701.586881</v>
+        <v>42701.586881000003</v>
       </c>
       <c r="L16" s="1">
         <v>11.861552</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.490000</v>
+        <v>1310.49</v>
       </c>
       <c r="N16" s="1">
-        <v>-195.878000</v>
+        <v>-195.87799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>42712.388789</v>
+        <v>42712.388788999997</v>
       </c>
       <c r="Q16" s="1">
         <v>11.864552</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.200000</v>
+        <v>1322.2</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.842000</v>
+        <v>-179.84200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>42722.895013</v>
+        <v>42722.895013000001</v>
       </c>
       <c r="V16" s="1">
         <v>11.867471</v>
       </c>
       <c r="W16" s="1">
-        <v>1335.340000</v>
+        <v>1335.34</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.501000</v>
+        <v>-168.501</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>42733.411718</v>
+        <v>42733.411718000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.870392</v>
+        <v>11.870392000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.580000</v>
+        <v>1353.58</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.746000</v>
+        <v>-167.74600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>42743.904552</v>
@@ -4169,680 +4585,680 @@
         <v>11.873307</v>
       </c>
       <c r="AG16" s="1">
-        <v>1366.850000</v>
+        <v>1366.85</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.266000</v>
+        <v>-178.26599999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>42754.439230</v>
+        <v>42754.439230000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.876233</v>
+        <v>11.876232999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.020000</v>
+        <v>1388.02</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.648000</v>
+        <v>-208.648</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>42765.231036</v>
+        <v>42765.231035999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.879231</v>
+        <v>11.879231000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1409.890000</v>
+        <v>1409.89</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.691000</v>
+        <v>-252.691</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>42776.391022</v>
+        <v>42776.391022000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.882331</v>
+        <v>11.882331000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.855000</v>
+        <v>-312.85500000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>42787.024750</v>
+        <v>42787.024749999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.885285</v>
       </c>
       <c r="BA16" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.053000</v>
+        <v>-365.053</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>42797.660007</v>
+        <v>42797.660006999999</v>
       </c>
       <c r="BE16" s="1">
         <v>11.888239</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.200000</v>
+        <v>1539.2</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.808000</v>
+        <v>-613.80799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>42808.602745</v>
+        <v>42808.602744999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.891279</v>
+        <v>11.891279000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1693.210000</v>
+        <v>1693.21</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.000000</v>
+        <v>-1060</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>42820.164947</v>
+        <v>42820.164946999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.894490</v>
+        <v>11.894489999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1986.670000</v>
+        <v>1986.67</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1833.860000</v>
+        <v>-1833.86</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>42831.168197</v>
+        <v>42831.168196999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.897547</v>
+        <v>11.897546999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2374.010000</v>
+        <v>2374.0100000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2730.450000</v>
+        <v>-2730.45</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>42842.074726</v>
+        <v>42842.074725999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.900576</v>
+        <v>11.900575999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2856.260000</v>
+        <v>2856.26</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3705.140000</v>
+        <v>-3705.14</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>42854.496822</v>
+        <v>42854.496822000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.904027</v>
+        <v>11.904026999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.890000</v>
+        <v>4272.8900000000003</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6055.410000</v>
+        <v>-6055.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>42680.679019</v>
+        <v>42680.679019000003</v>
       </c>
       <c r="B17" s="1">
         <v>11.855744</v>
       </c>
       <c r="C17" s="1">
-        <v>1254.840000</v>
+        <v>1254.8399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-290.115000</v>
+        <v>-290.11500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>42691.740797</v>
+        <v>42691.740796999999</v>
       </c>
       <c r="G17" s="1">
         <v>11.858817</v>
       </c>
       <c r="H17" s="1">
-        <v>1277.090000</v>
+        <v>1277.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-252.370000</v>
+        <v>-252.37</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>42702.252016</v>
+        <v>42702.252015999999</v>
       </c>
       <c r="L17" s="1">
         <v>11.861737</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.390000</v>
+        <v>1310.3900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-195.688000</v>
+        <v>-195.68799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>42712.781616</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.864662</v>
+        <v>11.864661999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.190000</v>
+        <v>1322.19</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.861000</v>
+        <v>-179.86099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>42723.239731</v>
+        <v>42723.239731000001</v>
       </c>
       <c r="V17" s="1">
-        <v>11.867567</v>
+        <v>11.867566999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1335.690000</v>
+        <v>1335.69</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.222000</v>
+        <v>-168.22200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>42733.759382</v>
+        <v>42733.759381999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.870489</v>
+        <v>11.870488999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.834000</v>
+        <v>-167.834</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>42744.254263</v>
+        <v>42744.254263000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.873404</v>
+        <v>11.873404000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1366.920000</v>
+        <v>1366.92</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.281000</v>
+        <v>-178.28100000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>42754.879034</v>
+        <v>42754.879033999998</v>
       </c>
       <c r="AK17" s="1">
         <v>11.876355</v>
       </c>
       <c r="AL17" s="1">
-        <v>1387.970000</v>
+        <v>1387.97</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.629000</v>
+        <v>-208.62899999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>42765.648171</v>
+        <v>42765.648171000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>11.879347</v>
+        <v>11.879346999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.715000</v>
+        <v>-252.715</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>42776.686177</v>
+        <v>42776.686177000003</v>
       </c>
       <c r="AU17" s="1">
         <v>11.882413</v>
       </c>
       <c r="AV17" s="1">
-        <v>1434.570000</v>
+        <v>1434.57</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.839000</v>
+        <v>-312.839</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>42787.383358</v>
+        <v>42787.383357999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.885384</v>
       </c>
       <c r="BA17" s="1">
-        <v>1453.990000</v>
+        <v>1453.99</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.023000</v>
+        <v>-365.02300000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>42798.020593</v>
+        <v>42798.020593000001</v>
       </c>
       <c r="BE17" s="1">
         <v>11.888339</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.230000</v>
+        <v>1539.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.792000</v>
+        <v>-613.79200000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>42808.977682</v>
+        <v>42808.977681999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>11.891383</v>
+        <v>11.891382999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1693.130000</v>
+        <v>1693.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.010000</v>
+        <v>-1060.01</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>42820.993763</v>
+        <v>42820.993762999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.894720</v>
+        <v>11.89472</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.620000</v>
+        <v>1986.62</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1833.780000</v>
+        <v>-1833.78</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>42831.584340</v>
+        <v>42831.584340000001</v>
       </c>
       <c r="BT17" s="1">
         <v>11.897662</v>
       </c>
       <c r="BU17" s="1">
-        <v>2374.500000</v>
+        <v>2374.5</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2730.730000</v>
+        <v>-2730.73</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>42842.497319</v>
+        <v>42842.497319000002</v>
       </c>
       <c r="BY17" s="1">
         <v>11.900694</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2856.690000</v>
+        <v>2856.69</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3704.890000</v>
+        <v>-3704.89</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>42855.012869</v>
+        <v>42855.012868999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.904170</v>
+        <v>11.904170000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4274.290000</v>
+        <v>4274.29</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6070.350000</v>
+        <v>-6070.35</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>42681.328982</v>
+        <v>42681.328981999999</v>
       </c>
       <c r="B18" s="1">
-        <v>11.855925</v>
+        <v>11.855924999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1255.070000</v>
+        <v>1255.07</v>
       </c>
       <c r="D18" s="1">
-        <v>-290.115000</v>
+        <v>-290.11500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>42692.111308</v>
       </c>
       <c r="G18" s="1">
-        <v>11.858920</v>
+        <v>11.858919999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1278.380000</v>
+        <v>1278.3800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-251.267000</v>
+        <v>-251.267</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>42702.627486</v>
+        <v>42702.627485999998</v>
       </c>
       <c r="L18" s="1">
         <v>11.861841</v>
       </c>
       <c r="M18" s="1">
-        <v>1310.640000</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-196.054000</v>
+        <v>-196.054</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>42713.129810</v>
+        <v>42713.129809999999</v>
       </c>
       <c r="Q18" s="1">
         <v>11.864758</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.190000</v>
+        <v>1322.19</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.920000</v>
+        <v>-179.92</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>42723.584450</v>
+        <v>42723.584450000002</v>
       </c>
       <c r="V18" s="1">
-        <v>11.867662</v>
+        <v>11.867661999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1335.660000</v>
+        <v>1335.66</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.396000</v>
+        <v>-168.39599999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>42734.107574</v>
+        <v>42734.107574000001</v>
       </c>
       <c r="AA18" s="1">
         <v>11.870585</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.590000</v>
+        <v>1353.59</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.824000</v>
+        <v>-167.82400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>42744.677319</v>
+        <v>42744.677319000002</v>
       </c>
       <c r="AF18" s="1">
         <v>11.873521</v>
       </c>
       <c r="AG18" s="1">
-        <v>1366.920000</v>
+        <v>1366.92</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.263000</v>
+        <v>-178.26300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>42755.139930</v>
+        <v>42755.139929999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.876428</v>
+        <v>11.876428000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1387.980000</v>
+        <v>1387.98</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.622000</v>
+        <v>-208.62200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>42765.951722</v>
+        <v>42765.951721999998</v>
       </c>
       <c r="AP18" s="1">
         <v>11.879431</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1409.880000</v>
+        <v>1409.88</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.713000</v>
+        <v>-252.71299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>42777.050700</v>
+        <v>42777.0507</v>
       </c>
       <c r="AU18" s="1">
         <v>11.882514</v>
       </c>
       <c r="AV18" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.821000</v>
+        <v>-312.82100000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>42787.741968</v>
+        <v>42787.741968000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.885484</v>
       </c>
       <c r="BA18" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.048000</v>
+        <v>-365.048</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>42798.379695</v>
+        <v>42798.379695000003</v>
       </c>
       <c r="BE18" s="1">
         <v>11.888439</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.190000</v>
+        <v>1539.19</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.844000</v>
+        <v>-613.84400000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>42809.729643</v>
+        <v>42809.729642999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.891592</v>
+        <v>11.891591999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1693.120000</v>
+        <v>1693.12</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.020000</v>
+        <v>-1060.02</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>42821.403459</v>
+        <v>42821.403459000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.894834</v>
+        <v>11.894833999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1986.610000</v>
+        <v>1986.61</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1833.820000</v>
+        <v>-1833.82</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>42831.998995</v>
+        <v>42831.998995000002</v>
       </c>
       <c r="BT18" s="1">
         <v>11.897777</v>
       </c>
       <c r="BU18" s="1">
-        <v>2374.880000</v>
+        <v>2374.88</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2730.580000</v>
+        <v>-2730.58</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>42842.944212</v>
+        <v>42842.944212000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.900818</v>
+        <v>11.900817999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2856.430000</v>
+        <v>2856.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3705.910000</v>
+        <v>-3705.91</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>42855.842677</v>
+        <v>42855.842677000001</v>
       </c>
       <c r="CD18" s="1">
         <v>11.904401</v>
       </c>
       <c r="CE18" s="1">
-        <v>4287.730000</v>
+        <v>4287.7299999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6066.110000</v>
+        <v>-6066.11</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>42681.702266</v>
       </c>
@@ -4850,315 +5266,315 @@
         <v>11.856028</v>
       </c>
       <c r="C19" s="1">
-        <v>1254.850000</v>
+        <v>1254.8499999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-290.275000</v>
+        <v>-290.27499999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>42692.459499</v>
+        <v>42692.459498999997</v>
       </c>
       <c r="G19" s="1">
         <v>11.859017</v>
       </c>
       <c r="H19" s="1">
-        <v>1276.910000</v>
+        <v>1276.9100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-251.621000</v>
+        <v>-251.62100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>42702.972737</v>
+        <v>42702.972736999996</v>
       </c>
       <c r="L19" s="1">
-        <v>11.861937</v>
+        <v>11.861936999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.140000</v>
+        <v>1310.1400000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-195.852000</v>
+        <v>-195.852</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>42713.476976</v>
+        <v>42713.476975999998</v>
       </c>
       <c r="Q19" s="1">
         <v>11.864855</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.140000</v>
+        <v>1322.14</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.917000</v>
+        <v>-179.917</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>42724.008530</v>
+        <v>42724.008529999999</v>
       </c>
       <c r="V19" s="1">
-        <v>11.867780</v>
+        <v>11.86778</v>
       </c>
       <c r="W19" s="1">
-        <v>1335.520000</v>
+        <v>1335.52</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.295000</v>
+        <v>-168.29499999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>42734.529700</v>
+        <v>42734.529699999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.870703</v>
+        <v>11.870703000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.964000</v>
+        <v>-167.964</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>42744.957559</v>
+        <v>42744.957559000002</v>
       </c>
       <c r="AF19" s="1">
         <v>11.873599</v>
       </c>
       <c r="AG19" s="1">
-        <v>1366.890000</v>
+        <v>1366.89</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.268000</v>
+        <v>-178.268</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>42755.489115</v>
+        <v>42755.489114999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.876525</v>
+        <v>11.876525000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.010000</v>
+        <v>1388.01</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.609000</v>
+        <v>-208.60900000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>42766.314831</v>
+        <v>42766.314831000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.879532</v>
+        <v>11.879531999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.705000</v>
+        <v>-252.70500000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>42777.414267</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.882615</v>
+        <v>11.882614999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1434.590000</v>
+        <v>1434.59</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.846000</v>
+        <v>-312.846</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>42788.460669</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11.885684</v>
+        <v>11.885683999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1453.970000</v>
+        <v>1453.97</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.036000</v>
+        <v>-365.036</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>42799.101841</v>
+        <v>42799.101841000003</v>
       </c>
       <c r="BE19" s="1">
         <v>11.888639</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.180000</v>
+        <v>1539.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.783000</v>
+        <v>-613.78300000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>42810.106576</v>
+        <v>42810.106575999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.891696</v>
       </c>
       <c r="BK19" s="1">
-        <v>1693.150000</v>
+        <v>1693.15</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1059.960000</v>
+        <v>-1059.96</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>42821.802242</v>
+        <v>42821.802241999998</v>
       </c>
       <c r="BO19" s="1">
         <v>11.894945</v>
       </c>
       <c r="BP19" s="1">
-        <v>1986.730000</v>
+        <v>1986.73</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1833.860000</v>
+        <v>-1833.86</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>42832.437492</v>
+        <v>42832.437491999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.897899</v>
+        <v>11.897899000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2374.970000</v>
+        <v>2374.9699999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2730.020000</v>
+        <v>-2730.02</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>42843.690691</v>
+        <v>42843.690691000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.901025</v>
+        <v>11.901025000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2856.480000</v>
+        <v>2856.48</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3705.460000</v>
+        <v>-3705.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>42856.080048</v>
+        <v>42856.080048000003</v>
       </c>
       <c r="CD19" s="1">
         <v>11.904467</v>
       </c>
       <c r="CE19" s="1">
-        <v>4273.920000</v>
+        <v>4273.92</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6056.010000</v>
+        <v>-6056.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>42682.045499</v>
       </c>
       <c r="B20" s="1">
-        <v>11.856124</v>
+        <v>11.856123999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1255.110000</v>
+        <v>1255.1099999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-290.266000</v>
+        <v>-290.26600000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>42692.805212</v>
+        <v>42692.805211999999</v>
       </c>
       <c r="G20" s="1">
-        <v>11.859113</v>
+        <v>11.859113000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1277.260000</v>
+        <v>1277.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-251.855000</v>
+        <v>-251.85499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>42703.315933</v>
+        <v>42703.315932999998</v>
       </c>
       <c r="L20" s="1">
-        <v>11.862032</v>
+        <v>11.862031999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.400000</v>
+        <v>1310.4000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-195.676000</v>
+        <v>-195.67599999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>42713.907503</v>
+        <v>42713.907503000002</v>
       </c>
       <c r="Q20" s="1">
         <v>11.864974</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.903000</v>
+        <v>-179.90299999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>42724.282818</v>
@@ -5167,13 +5583,13 @@
         <v>11.867856</v>
       </c>
       <c r="W20" s="1">
-        <v>1335.490000</v>
+        <v>1335.49</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.448000</v>
+        <v>-168.44800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>42734.816884</v>
@@ -5182,163 +5598,163 @@
         <v>11.870782</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.490000</v>
+        <v>1353.49</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.805000</v>
+        <v>-167.80500000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>42745.302279</v>
+        <v>42745.302279000003</v>
       </c>
       <c r="AF20" s="1">
         <v>11.873695</v>
       </c>
       <c r="AG20" s="1">
-        <v>1366.880000</v>
+        <v>1366.88</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.213000</v>
+        <v>-178.21299999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>42755.834824</v>
+        <v>42755.834823999998</v>
       </c>
       <c r="AK20" s="1">
         <v>11.876621</v>
       </c>
       <c r="AL20" s="1">
-        <v>1387.990000</v>
+        <v>1387.99</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.637000</v>
+        <v>-208.637</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>42766.673930</v>
+        <v>42766.673929999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.879632</v>
+        <v>11.879632000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.695000</v>
+        <v>-252.69499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>42778.149835</v>
+        <v>42778.149834999997</v>
       </c>
       <c r="AU20" s="1">
         <v>11.882819</v>
       </c>
       <c r="AV20" s="1">
-        <v>1434.600000</v>
+        <v>1434.6</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.839000</v>
+        <v>-312.839</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>42788.849037</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.885791</v>
+        <v>11.885790999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1453.930000</v>
+        <v>1453.93</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.029000</v>
+        <v>-365.029</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>42799.492688</v>
+        <v>42799.492687999998</v>
       </c>
       <c r="BE20" s="1">
         <v>11.888748</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.220000</v>
+        <v>1539.22</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.756000</v>
+        <v>-613.75599999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>42810.481593</v>
+        <v>42810.481592999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.891800</v>
+        <v>11.8918</v>
       </c>
       <c r="BK20" s="1">
-        <v>1693.160000</v>
+        <v>1693.16</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1059.960000</v>
+        <v>-1059.96</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>42822.533840</v>
+        <v>42822.533839999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.895148</v>
+        <v>11.895148000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1986.640000</v>
+        <v>1986.64</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1833.870000</v>
+        <v>-1833.87</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>42833.195345</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.898110</v>
+        <v>11.898110000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2375.050000</v>
+        <v>2375.0500000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2729.640000</v>
+        <v>-2729.64</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>42843.810228</v>
+        <v>42843.810228000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.901058</v>
+        <v>11.901058000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2856.290000</v>
+        <v>2856.29</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3705.340000</v>
+        <v>-3705.34</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>42856.612964</v>
@@ -5347,90 +5763,90 @@
         <v>11.904615</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.050000</v>
+        <v>4278.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6075.650000</v>
+        <v>-6075.65</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>42682.383770</v>
+        <v>42682.38377</v>
       </c>
       <c r="B21" s="1">
         <v>11.856218</v>
       </c>
       <c r="C21" s="1">
-        <v>1255.470000</v>
+        <v>1255.47</v>
       </c>
       <c r="D21" s="1">
-        <v>-290.083000</v>
+        <v>-290.08300000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>42693.235738</v>
+        <v>42693.235738000003</v>
       </c>
       <c r="G21" s="1">
         <v>11.859232</v>
       </c>
       <c r="H21" s="1">
-        <v>1277.180000</v>
+        <v>1277.18</v>
       </c>
       <c r="I21" s="1">
-        <v>-251.270000</v>
+        <v>-251.27</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>42703.730093</v>
+        <v>42703.730092999998</v>
       </c>
       <c r="L21" s="1">
         <v>11.862147</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.200000</v>
+        <v>1310.2</v>
       </c>
       <c r="N21" s="1">
-        <v>-195.711000</v>
+        <v>-195.71100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>42714.183806</v>
+        <v>42714.183806000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.865051</v>
+        <v>11.865050999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.060000</v>
+        <v>1322.06</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.913000</v>
+        <v>-179.91300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>42724.625262</v>
+        <v>42724.625262000001</v>
       </c>
       <c r="V21" s="1">
         <v>11.867951</v>
       </c>
       <c r="W21" s="1">
-        <v>1335.500000</v>
+        <v>1335.5</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.360000</v>
+        <v>-168.36</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>42735.164051</v>
@@ -5439,375 +5855,375 @@
         <v>11.870879</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.360000</v>
+        <v>1353.36</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.832000</v>
+        <v>-167.83199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>42745.646502</v>
+        <v>42745.646502000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.873791</v>
+        <v>11.873791000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1366.930000</v>
+        <v>1366.93</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.276000</v>
+        <v>-178.27600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>42756.531738</v>
+        <v>42756.531737999998</v>
       </c>
       <c r="AK21" s="1">
         <v>11.876814</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.020000</v>
+        <v>1388.02</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.667000</v>
+        <v>-208.667</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>42767.399050</v>
+        <v>42767.39905</v>
       </c>
       <c r="AP21" s="1">
         <v>11.879833</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.726000</v>
+        <v>-252.726</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>42778.535722</v>
+        <v>42778.535722000001</v>
       </c>
       <c r="AU21" s="1">
         <v>11.882927</v>
       </c>
       <c r="AV21" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.818000</v>
+        <v>-312.81799999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>42789.206188</v>
+        <v>42789.206187999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.885891</v>
+        <v>11.885891000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1453.990000</v>
+        <v>1453.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.022000</v>
+        <v>-365.02199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>42799.850303</v>
+        <v>42799.850302999999</v>
       </c>
       <c r="BE21" s="1">
         <v>11.888847</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.170000</v>
+        <v>1539.17</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.794000</v>
+        <v>-613.79399999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>42811.168048</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.891991</v>
+        <v>11.891991000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.130000</v>
+        <v>1693.13</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1059.910000</v>
+        <v>-1059.9100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>42822.645967</v>
+        <v>42822.645966999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.895179</v>
+        <v>11.895179000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1986.620000</v>
+        <v>1986.62</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1833.740000</v>
+        <v>-1833.74</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>42833.311409</v>
+        <v>42833.311409000002</v>
       </c>
       <c r="BT21" s="1">
         <v>11.898142</v>
       </c>
       <c r="BU21" s="1">
-        <v>2375.520000</v>
+        <v>2375.52</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2729.380000</v>
+        <v>-2729.38</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>42844.236787</v>
+        <v>42844.236787000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.901177</v>
+        <v>11.901177000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2856.380000</v>
+        <v>2856.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3705.310000</v>
+        <v>-3705.31</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>42857.155090</v>
+        <v>42857.15509</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.904765</v>
+        <v>11.904764999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4282.720000</v>
+        <v>4282.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6051.040000</v>
+        <v>-6051.04</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>42682.804910</v>
+        <v>42682.804909999999</v>
       </c>
       <c r="B22" s="1">
         <v>11.856335</v>
       </c>
       <c r="C22" s="1">
-        <v>1254.920000</v>
+        <v>1254.92</v>
       </c>
       <c r="D22" s="1">
-        <v>-290.092000</v>
+        <v>-290.09199999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>42693.514987</v>
+        <v>42693.514987000002</v>
       </c>
       <c r="G22" s="1">
-        <v>11.859310</v>
+        <v>11.859310000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1276.720000</v>
+        <v>1276.72</v>
       </c>
       <c r="I22" s="1">
-        <v>-251.837000</v>
+        <v>-251.83699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>42704.032157</v>
+        <v>42704.032157000001</v>
       </c>
       <c r="L22" s="1">
         <v>11.862231</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.230000</v>
+        <v>1310.23</v>
       </c>
       <c r="N22" s="1">
-        <v>-195.685000</v>
+        <v>-195.685</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>42714.534447</v>
+        <v>42714.534446999998</v>
       </c>
       <c r="Q22" s="1">
         <v>11.865148</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.170000</v>
+        <v>1322.17</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.812000</v>
+        <v>-179.81200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>42724.969281</v>
+        <v>42724.969280999998</v>
       </c>
       <c r="V22" s="1">
-        <v>11.868047</v>
+        <v>11.868047000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1335.520000</v>
+        <v>1335.52</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.429000</v>
+        <v>-168.429</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>42735.514750</v>
+        <v>42735.514750000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.870976</v>
+        <v>11.870976000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.774000</v>
+        <v>-167.774</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>42746.332964</v>
+        <v>42746.332964000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.873981</v>
+        <v>11.873981000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1366.960000</v>
+        <v>1366.96</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.211000</v>
+        <v>-178.21100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>42756.879895</v>
+        <v>42756.879894999998</v>
       </c>
       <c r="AK22" s="1">
         <v>11.876911</v>
       </c>
       <c r="AL22" s="1">
-        <v>1387.990000</v>
+        <v>1387.99</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.637000</v>
+        <v>-208.637</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>42767.777994</v>
+        <v>42767.777993999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.879938</v>
+        <v>11.879937999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.725000</v>
+        <v>-252.72499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>42778.897306</v>
+        <v>42778.897305999999</v>
       </c>
       <c r="AU22" s="1">
         <v>11.883027</v>
       </c>
       <c r="AV22" s="1">
-        <v>1434.610000</v>
+        <v>1434.61</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.837000</v>
+        <v>-312.83699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>42789.887661</v>
+        <v>42789.887661000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.886080</v>
+        <v>11.88608</v>
       </c>
       <c r="BA22" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.078000</v>
+        <v>-365.07799999999997</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>42800.538782</v>
+        <v>42800.538782000003</v>
       </c>
       <c r="BE22" s="1">
         <v>11.889039</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.230000</v>
+        <v>1539.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.786000</v>
+        <v>-613.78599999999994</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>42811.607968</v>
+        <v>42811.607967999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.892113</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.170000</v>
+        <v>1693.17</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1060.010000</v>
+        <v>-1060.01</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>42823.039761</v>
@@ -5816,105 +6232,105 @@
         <v>11.895289</v>
       </c>
       <c r="BP22" s="1">
-        <v>1986.540000</v>
+        <v>1986.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1833.830000</v>
+        <v>-1833.83</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>42833.724081</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.898257</v>
+        <v>11.898256999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2375.420000</v>
+        <v>2375.42</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2729.110000</v>
+        <v>-2729.11</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>42844.655410</v>
+        <v>42844.655409999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>11.901293</v>
+        <v>11.901293000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2856.280000</v>
+        <v>2856.28</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3705.390000</v>
+        <v>-3705.39</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>42857.694242</v>
+        <v>42857.694241999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.904915</v>
+        <v>11.904915000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.420000</v>
+        <v>4270.42</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6069.210000</v>
+        <v>-6069.21</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>42683.085609</v>
+        <v>42683.085609000002</v>
       </c>
       <c r="B23" s="1">
         <v>11.856413</v>
       </c>
       <c r="C23" s="1">
-        <v>1255.110000</v>
+        <v>1255.1099999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-289.966000</v>
+        <v>-289.96600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>42693.861194</v>
+        <v>42693.861193999997</v>
       </c>
       <c r="G23" s="1">
         <v>11.859406</v>
       </c>
       <c r="H23" s="1">
-        <v>1276.820000</v>
+        <v>1276.82</v>
       </c>
       <c r="I23" s="1">
-        <v>-251.727000</v>
+        <v>-251.727</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>42704.376881</v>
+        <v>42704.376880999997</v>
       </c>
       <c r="L23" s="1">
-        <v>11.862327</v>
+        <v>11.862327000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.500000</v>
+        <v>1310.5</v>
       </c>
       <c r="N23" s="1">
-        <v>-195.780000</v>
+        <v>-195.78</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>42714.881683</v>
@@ -5923,163 +6339,163 @@
         <v>11.865245</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.240000</v>
+        <v>1322.24</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.838000</v>
+        <v>-179.83799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>42725.657232</v>
+        <v>42725.657231999998</v>
       </c>
       <c r="V23" s="1">
         <v>11.868238</v>
       </c>
       <c r="W23" s="1">
-        <v>1335.590000</v>
+        <v>1335.59</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.666000</v>
+        <v>-168.666</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>42736.210115</v>
+        <v>42736.210115000002</v>
       </c>
       <c r="AA23" s="1">
         <v>11.871169</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.410000</v>
+        <v>1353.41</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.857000</v>
+        <v>-167.857</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>42746.679669</v>
+        <v>42746.679668999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.874078</v>
+        <v>11.874078000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1366.950000</v>
+        <v>1366.95</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.221000</v>
+        <v>-178.221</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>42757.227624</v>
+        <v>42757.227623999999</v>
       </c>
       <c r="AK23" s="1">
         <v>11.877008</v>
       </c>
       <c r="AL23" s="1">
-        <v>1387.990000</v>
+        <v>1387.99</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.626000</v>
+        <v>-208.626</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>42768.138585</v>
+        <v>42768.138585000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.880038</v>
+        <v>11.880038000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.697000</v>
+        <v>-252.697</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>42779.583770</v>
+        <v>42779.583769999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>11.883218</v>
+        <v>11.883217999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1434.590000</v>
+        <v>1434.59</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.814000</v>
+        <v>-312.81400000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>42790.311738</v>
+        <v>42790.311737999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.886198</v>
       </c>
       <c r="BA23" s="1">
-        <v>1453.970000</v>
+        <v>1453.97</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.006000</v>
+        <v>-365.00599999999997</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>42800.962333</v>
+        <v>42800.962333000003</v>
       </c>
       <c r="BE23" s="1">
         <v>11.889156</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.140000</v>
+        <v>1539.14</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.789000</v>
+        <v>-613.78899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>42811.983442</v>
+        <v>42811.983441999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.892218</v>
       </c>
       <c r="BK23" s="1">
-        <v>1693.070000</v>
+        <v>1693.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.910000</v>
+        <v>-1059.9100000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>42823.464334</v>
+        <v>42823.464333999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.895407</v>
+        <v>11.895407000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.650000</v>
+        <v>1986.65</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1833.780000</v>
+        <v>-1833.78</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>42834.156594</v>
@@ -6088,150 +6504,150 @@
         <v>11.898377</v>
       </c>
       <c r="BU23" s="1">
-        <v>2375.560000</v>
+        <v>2375.56</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2728.880000</v>
+        <v>-2728.88</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>42845.101847</v>
+        <v>42845.101846999998</v>
       </c>
       <c r="BY23" s="1">
         <v>11.901417</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2856.380000</v>
+        <v>2856.38</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3704.660000</v>
+        <v>-3704.66</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>42858.234416</v>
+        <v>42858.234415999999</v>
       </c>
       <c r="CD23" s="1">
         <v>11.905065</v>
       </c>
       <c r="CE23" s="1">
-        <v>4290.360000</v>
+        <v>4290.3599999999997</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6062.580000</v>
+        <v>-6062.58</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>42683.426395</v>
+        <v>42683.426395000002</v>
       </c>
       <c r="B24" s="1">
-        <v>11.856507</v>
+        <v>11.856507000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1254.740000</v>
+        <v>1254.74</v>
       </c>
       <c r="D24" s="1">
-        <v>-290.659000</v>
+        <v>-290.65899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>42694.204921</v>
+        <v>42694.204920999997</v>
       </c>
       <c r="G24" s="1">
         <v>11.859501</v>
       </c>
       <c r="H24" s="1">
-        <v>1277.970000</v>
+        <v>1277.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-251.820000</v>
+        <v>-251.82</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>42704.706717</v>
+        <v>42704.706717000001</v>
       </c>
       <c r="L24" s="1">
-        <v>11.862419</v>
+        <v>11.862418999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.420000</v>
+        <v>1310.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-195.801000</v>
+        <v>-195.80099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>42715.568110</v>
+        <v>42715.56811</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.865436</v>
+        <v>11.865436000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.180000</v>
+        <v>1322.18</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.904000</v>
+        <v>-179.904</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>42726.001952</v>
+        <v>42726.001951999999</v>
       </c>
       <c r="V24" s="1">
-        <v>11.868334</v>
+        <v>11.868334000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1335.560000</v>
+        <v>1335.56</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.454000</v>
+        <v>-168.45400000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>42736.558307</v>
+        <v>42736.558306999999</v>
       </c>
       <c r="AA24" s="1">
         <v>11.871266</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.500000</v>
+        <v>1353.5</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.875000</v>
+        <v>-167.875</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>42747.021442</v>
+        <v>42747.021441999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.874173</v>
+        <v>11.874173000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1366.940000</v>
+        <v>1366.94</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.267000</v>
+        <v>-178.267</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>42757.894215</v>
@@ -6240,43 +6656,43 @@
         <v>11.877193</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.010000</v>
+        <v>1388.01</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.594000</v>
+        <v>-208.59399999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>42768.809702</v>
+        <v>42768.809701999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.880225</v>
+        <v>11.880224999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.711000</v>
+        <v>-252.71100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>42780.020123</v>
+        <v>42780.020123000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.883339</v>
+        <v>11.883338999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1434.560000</v>
+        <v>1434.56</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.838000</v>
+        <v>-312.83800000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>42790.690186</v>
@@ -6285,345 +6701,345 @@
         <v>11.886303</v>
       </c>
       <c r="BA24" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.033000</v>
+        <v>-365.03300000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>42801.326924</v>
+        <v>42801.326924000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.889257</v>
+        <v>11.889257000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.180000</v>
+        <v>1539.18</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.775000</v>
+        <v>-613.77499999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>42812.359406</v>
+        <v>42812.359406000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.892322</v>
       </c>
       <c r="BK24" s="1">
-        <v>1693.070000</v>
+        <v>1693.07</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1059.940000</v>
+        <v>-1059.94</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>42823.894864</v>
+        <v>42823.894864000002</v>
       </c>
       <c r="BO24" s="1">
         <v>11.895526</v>
       </c>
       <c r="BP24" s="1">
-        <v>1986.590000</v>
+        <v>1986.59</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1833.780000</v>
+        <v>-1833.78</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>42834.578719</v>
+        <v>42834.578718999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.898494</v>
+        <v>11.898493999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2375.660000</v>
+        <v>2375.66</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2728.450000</v>
+        <v>-2728.45</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>42845.522913</v>
+        <v>42845.522913000001</v>
       </c>
       <c r="BY24" s="1">
         <v>11.901534</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.930000</v>
+        <v>2855.93</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3705.020000</v>
+        <v>-3705.02</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>42858.773073</v>
+        <v>42858.773072999997</v>
       </c>
       <c r="CD24" s="1">
         <v>11.905215</v>
       </c>
       <c r="CE24" s="1">
-        <v>4272.090000</v>
+        <v>4272.09</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6057.660000</v>
+        <v>-6057.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>42683.769095</v>
+        <v>42683.769095000003</v>
       </c>
       <c r="B25" s="1">
         <v>11.856603</v>
       </c>
       <c r="C25" s="1">
-        <v>1254.790000</v>
+        <v>1254.79</v>
       </c>
       <c r="D25" s="1">
-        <v>-290.041000</v>
+        <v>-290.041</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>42694.899321</v>
+        <v>42694.899320999997</v>
       </c>
       <c r="G25" s="1">
-        <v>11.859694</v>
+        <v>11.859693999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1276.920000</v>
+        <v>1276.92</v>
       </c>
       <c r="I25" s="1">
-        <v>-252.163000</v>
+        <v>-252.16300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>42705.408591</v>
+        <v>42705.408590999999</v>
       </c>
       <c r="L25" s="1">
         <v>11.862613</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.200000</v>
+        <v>1310.2</v>
       </c>
       <c r="N25" s="1">
-        <v>-195.860000</v>
+        <v>-195.86</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>42715.927740</v>
+        <v>42715.927739999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.865535</v>
+        <v>11.865534999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.140000</v>
+        <v>1322.14</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.972000</v>
+        <v>-179.97200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>42726.345183</v>
+        <v>42726.345182999998</v>
       </c>
       <c r="V25" s="1">
-        <v>11.868429</v>
+        <v>11.868429000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1335.840000</v>
+        <v>1335.84</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.511000</v>
+        <v>-168.511</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>42736.911458</v>
+        <v>42736.911458000002</v>
       </c>
       <c r="AA25" s="1">
         <v>11.871364</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.460000</v>
+        <v>1353.46</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.918000</v>
+        <v>-167.91800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>42747.679603</v>
+        <v>42747.679602999997</v>
       </c>
       <c r="AF25" s="1">
         <v>11.874355</v>
       </c>
       <c r="AG25" s="1">
-        <v>1366.910000</v>
+        <v>1366.91</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.177000</v>
+        <v>-178.17699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>42758.274645</v>
+        <v>42758.274644999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.877299</v>
+        <v>11.877299000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.010000</v>
+        <v>1388.01</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.646000</v>
+        <v>-208.64599999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>42769.218870</v>
+        <v>42769.218869999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.880339</v>
+        <v>11.880338999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.701000</v>
+        <v>-252.70099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>42780.383817</v>
+        <v>42780.383817000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.883440</v>
+        <v>11.88344</v>
       </c>
       <c r="AV25" s="1">
-        <v>1434.570000</v>
+        <v>1434.57</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.870000</v>
+        <v>-312.87</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>42791.046841</v>
+        <v>42791.046841000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.886402</v>
       </c>
       <c r="BA25" s="1">
-        <v>1453.940000</v>
+        <v>1453.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.022000</v>
+        <v>-365.02199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>42801.688476</v>
+        <v>42801.688476000003</v>
       </c>
       <c r="BE25" s="1">
         <v>11.889358</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.190000</v>
+        <v>1539.19</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.756000</v>
+        <v>-613.75599999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>42812.783989</v>
+        <v>42812.783989000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>11.892440</v>
+        <v>11.892440000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.140000</v>
+        <v>1693.14</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1059.970000</v>
+        <v>-1059.97</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>42824.284223</v>
+        <v>42824.284223000002</v>
       </c>
       <c r="BO25" s="1">
         <v>11.895635</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.520000</v>
+        <v>1986.52</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1833.690000</v>
+        <v>-1833.69</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>42834.988383</v>
+        <v>42834.988383000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.898608</v>
+        <v>11.898607999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2375.860000</v>
+        <v>2375.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2728.080000</v>
+        <v>-2728.08</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>42845.945009</v>
+        <v>42845.945009000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.901651</v>
+        <v>11.901650999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2855.930000</v>
+        <v>2855.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3704.950000</v>
+        <v>-3704.95</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>42859.313037</v>
@@ -6632,16 +7048,16 @@
         <v>11.905365</v>
       </c>
       <c r="CE25" s="1">
-        <v>4282.200000</v>
+        <v>4282.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6074.620000</v>
+        <v>-6074.62</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>42684.451127</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>11.856792</v>
       </c>
       <c r="C26" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="D26" s="1">
-        <v>-290.289000</v>
+        <v>-290.28899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>42695.242553</v>
+        <v>42695.242552999996</v>
       </c>
       <c r="G26" s="1">
-        <v>11.859790</v>
+        <v>11.85979</v>
       </c>
       <c r="H26" s="1">
-        <v>1277.080000</v>
+        <v>1277.08</v>
       </c>
       <c r="I26" s="1">
-        <v>-251.332000</v>
+        <v>-251.33199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>42705.754266</v>
+        <v>42705.754266000004</v>
       </c>
       <c r="L26" s="1">
-        <v>11.862710</v>
+        <v>11.86271</v>
       </c>
       <c r="M26" s="1">
-        <v>1310.370000</v>
+        <v>1310.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-195.497000</v>
+        <v>-195.49700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>42716.277885</v>
+        <v>42716.277885000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.865633</v>
+        <v>11.865633000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.894000</v>
+        <v>-179.89400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>42727.005390</v>
+        <v>42727.005389999998</v>
       </c>
       <c r="V26" s="1">
         <v>11.868613</v>
       </c>
       <c r="W26" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.567000</v>
+        <v>-168.56700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>42737.577593</v>
+        <v>42737.577593000002</v>
       </c>
       <c r="AA26" s="1">
         <v>11.871549</v>
       </c>
       <c r="AB26" s="1">
-        <v>1353.530000</v>
+        <v>1353.53</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.869000</v>
+        <v>-167.869</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>42748.055572</v>
+        <v>42748.055571999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.874460</v>
+        <v>11.874459999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1366.890000</v>
+        <v>1366.89</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.206000</v>
+        <v>-178.20599999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>42758.622838</v>
+        <v>42758.622838000003</v>
       </c>
       <c r="AK26" s="1">
         <v>11.877395</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.000000</v>
+        <v>1388</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.637000</v>
+        <v>-208.637</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>42769.602773</v>
+        <v>42769.602772999999</v>
       </c>
       <c r="AP26" s="1">
         <v>11.880445</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.702000</v>
+        <v>-252.702</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>42780.750855</v>
+        <v>42780.750854999998</v>
       </c>
       <c r="AU26" s="1">
         <v>11.883542</v>
       </c>
       <c r="AV26" s="1">
-        <v>1434.580000</v>
+        <v>1434.58</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.802000</v>
+        <v>-312.80200000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>42791.476841</v>
+        <v>42791.476841000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.886521</v>
       </c>
       <c r="BA26" s="1">
-        <v>1453.960000</v>
+        <v>1453.96</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.020000</v>
+        <v>-365.02</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>42802.114043</v>
+        <v>42802.114043000001</v>
       </c>
       <c r="BE26" s="1">
         <v>11.889476</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.170000</v>
+        <v>1539.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.766000</v>
+        <v>-613.76599999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>42813.128736</v>
+        <v>42813.128735999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.892536</v>
       </c>
       <c r="BK26" s="1">
-        <v>1693.110000</v>
+        <v>1693.11</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1059.930000</v>
+        <v>-1059.93</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>42824.678573</v>
+        <v>42824.678572999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.895744</v>
+        <v>11.895744000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1986.560000</v>
+        <v>1986.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1833.610000</v>
+        <v>-1833.61</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>42835.399071</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.898722</v>
+        <v>11.898721999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2375.330000</v>
+        <v>2375.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2727.960000</v>
+        <v>-2727.96</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>42846.392896</v>
+        <v>42846.392895999998</v>
       </c>
       <c r="BY26" s="1">
         <v>11.901776</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2856.710000</v>
+        <v>2856.71</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3705.130000</v>
+        <v>-3705.13</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>42859.852865</v>
+        <v>42859.852865000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.905515</v>
+        <v>11.905514999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4281.090000</v>
+        <v>4281.09</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6050.720000</v>
+        <v>-6050.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>